--- a/src/ACAT/grades/FA24/COMP-301_FA24_01_course_data.xlsx
+++ b/src/ACAT/grades/FA24/COMP-301_FA24_01_course_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghava_Master's\Professional Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4A89D-66F9-4EBD-BC2C-CB48786BC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884DE9D-9AC0-46AA-8761-8C1656A7875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{4D43EC98-A4D7-4D2D-8FD5-97EE741AC06E}"/>
   </bookViews>
@@ -34,19 +34,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SIS User ID</t>
   </si>
   <si>
     <t>Exams Final Score</t>
   </si>
+  <si>
+    <t>Projects Final Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +69,14 @@
       <color theme="1"/>
       <name val="Liberation Serif"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -96,6 +107,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,82 +422,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C130D5-B4D6-4F1E-A824-4DF455CC2210}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="11.86328125" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
